--- a/Data Files/Combined Overview.xlsx
+++ b/Data Files/Combined Overview.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patta\SEN1211-group5\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\course\S2\Q2\agent based modeling\final project\model\github\SEN1211-group5\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A86DD-684A-438C-BF80-81401CD81D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB350D6-F86B-4B63-AA95-6D7A9C0514CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="2" xr2:uid="{4BD16997-7691-43B8-9BA7-0FE4E4FEADE7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{4BD16997-7691-43B8-9BA7-0FE4E4FEADE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="33 each multiple runs" sheetId="7" r:id="rId2"/>
     <sheet name="no policy multiple runs" sheetId="9" r:id="rId3"/>
+    <sheet name="50% compaign_overview" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,14 +35,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
   <si>
     <t>"total-recycle"</t>
   </si>
@@ -131,24 +130,44 @@
   <si>
     <t>AVERAGED</t>
   </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>50% compaign runs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -173,19 +192,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +357,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -240,7 +394,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -402,6 +556,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323.91378000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>615.72155999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900.07990000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1206.5239999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1508.3888000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1817.9811999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2113.9548000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2415.2619999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2713.8082000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3002.2689999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3294.6436000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3573.2359999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3869.5522000000005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -657,7 +853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="349665679"/>
@@ -716,7 +912,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="349664015"/>
@@ -758,7 +954,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -795,7 +991,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1391,7 +1587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1690,17 +1886,17 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1930,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f ca="1">'50% compaign_overview'!G3</f>
+        <v>0</v>
+      </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3:D16">'33 each multiple runs'!B19:B32</f>
         <v>0</v>
@@ -1744,7 +1944,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f ca="1">'50% compaign_overview'!G4</f>
+        <v>323.91378000000003</v>
+      </c>
       <c r="D4">
         <v>293.92013576671258</v>
       </c>
@@ -1752,7 +1956,11 @@
         <v>389.76102129297459</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f ca="1">'50% compaign_overview'!G5</f>
+        <v>615.72155999999995</v>
+      </c>
       <c r="D5">
         <v>580.47123775508658</v>
       </c>
@@ -1760,7 +1968,11 @@
         <v>788.49116183250919</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f ca="1">'50% compaign_overview'!G6</f>
+        <v>900.07990000000007</v>
+      </c>
       <c r="D6">
         <v>881.12238084144826</v>
       </c>
@@ -1768,7 +1980,11 @@
         <v>1158.2728321349218</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f ca="1">'50% compaign_overview'!G7</f>
+        <v>1206.5239999999999</v>
+      </c>
       <c r="D7">
         <v>1173.991886857686</v>
       </c>
@@ -1776,7 +1992,11 @@
         <v>1521.492408090834</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f ca="1">'50% compaign_overview'!G8</f>
+        <v>1508.3888000000002</v>
+      </c>
       <c r="D8">
         <v>1462.4910897757698</v>
       </c>
@@ -1784,7 +2004,11 @@
         <v>1881.669355119818</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f ca="1">'50% compaign_overview'!G9</f>
+        <v>1817.9811999999997</v>
+      </c>
       <c r="D9">
         <v>1736.467052834246</v>
       </c>
@@ -1792,7 +2016,11 @@
         <v>2265.3423840846563</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f ca="1">'50% compaign_overview'!G10</f>
+        <v>2113.9548000000004</v>
+      </c>
       <c r="D10">
         <v>1997.6077977179223</v>
       </c>
@@ -1800,7 +2028,11 @@
         <v>2625.7351217642777</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f ca="1">'50% compaign_overview'!G11</f>
+        <v>2415.2619999999997</v>
+      </c>
       <c r="D11">
         <v>2292.6843652179755</v>
       </c>
@@ -1808,7 +2040,11 @@
         <v>2997.2582025528036</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f ca="1">'50% compaign_overview'!G12</f>
+        <v>2713.8082000000004</v>
+      </c>
       <c r="D12">
         <v>2583.0404141437321</v>
       </c>
@@ -1816,7 +2052,11 @@
         <v>3372.1812553317882</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f ca="1">'50% compaign_overview'!G13</f>
+        <v>3002.2689999999998</v>
+      </c>
       <c r="D13">
         <v>2879.5223033764678</v>
       </c>
@@ -1824,7 +2064,11 @@
         <v>3738.7525159904135</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f ca="1">'50% compaign_overview'!G14</f>
+        <v>3294.6436000000003</v>
+      </c>
       <c r="D14">
         <v>3162.1970239508382</v>
       </c>
@@ -1832,7 +2076,11 @@
         <v>4102.7998798681656</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f ca="1">'50% compaign_overview'!G15</f>
+        <v>3573.2359999999999</v>
+      </c>
       <c r="D15">
         <v>3430.0269827602838</v>
       </c>
@@ -1840,7 +2088,11 @@
         <v>4456.7885311498003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f ca="1">'50% compaign_overview'!G16</f>
+        <v>3869.5522000000005</v>
+      </c>
       <c r="D16">
         <v>3716.2486290872016</v>
       </c>
@@ -1849,6 +2101,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1862,9 +2115,9 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1880,38 +2133,38 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A15">_xlfn.UNIQUE(H4:H213)</f>
         <v>0</v>
@@ -1948,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>311.67535364822101</v>
       </c>
@@ -2025,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>538.98551549121498</v>
       </c>
@@ -2102,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>797.12037993941101</v>
       </c>
@@ -2179,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1064.8391838073501</v>
       </c>
@@ -2256,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1310.1051484434499</v>
       </c>
@@ -2333,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1536.8623514964299</v>
       </c>
@@ -2410,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1794.45806224637</v>
       </c>
@@ -2487,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2077.1666212868799</v>
       </c>
@@ -2564,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2376.92750115644</v>
       </c>
@@ -2641,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2684.3423380557701</v>
       </c>
@@ -2718,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2959.6379041861301</v>
       </c>
@@ -2795,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3226.42084876643</v>
       </c>
@@ -2872,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>3481.7499491923099</v>
       </c>
@@ -2949,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G16">
         <v>12</v>
       </c>
@@ -3011,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G17">
         <v>13</v>
       </c>
@@ -3073,8 +3326,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G18">
@@ -3138,12 +3391,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
-        <f>AVERAGE(A2:E2)</f>
+        <f t="shared" ref="B19:B32" si="0">AVERAGE(A2:E2)</f>
         <v>0</v>
       </c>
       <c r="G19">
@@ -3207,12 +3460,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20">
-        <f>AVERAGE(A3:E3)</f>
+        <f t="shared" si="0"/>
         <v>293.92013576671258</v>
       </c>
       <c r="G20">
@@ -3276,12 +3529,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21">
-        <f>AVERAGE(A4:E4)</f>
+        <f t="shared" si="0"/>
         <v>580.47123775508658</v>
       </c>
       <c r="G21">
@@ -3345,12 +3598,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
-        <f>AVERAGE(A5:E5)</f>
+        <f t="shared" si="0"/>
         <v>881.12238084144826</v>
       </c>
       <c r="G22">
@@ -3414,12 +3667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23">
-        <f>AVERAGE(A6:E6)</f>
+        <f t="shared" si="0"/>
         <v>1173.991886857686</v>
       </c>
       <c r="G23">
@@ -3483,12 +3736,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24">
-        <f>AVERAGE(A7:E7)</f>
+        <f t="shared" si="0"/>
         <v>1462.4910897757698</v>
       </c>
       <c r="G24">
@@ -3552,12 +3805,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25">
-        <f>AVERAGE(A8:E8)</f>
+        <f t="shared" si="0"/>
         <v>1736.467052834246</v>
       </c>
       <c r="G25">
@@ -3621,12 +3874,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>8</v>
       </c>
       <c r="B26">
-        <f>AVERAGE(A9:E9)</f>
+        <f t="shared" si="0"/>
         <v>1997.6077977179223</v>
       </c>
       <c r="G26">
@@ -3690,12 +3943,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>9</v>
       </c>
       <c r="B27">
-        <f>AVERAGE(A10:E10)</f>
+        <f t="shared" si="0"/>
         <v>2292.6843652179755</v>
       </c>
       <c r="G27">
@@ -3759,12 +4012,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>10</v>
       </c>
       <c r="B28">
-        <f>AVERAGE(A11:E11)</f>
+        <f t="shared" si="0"/>
         <v>2583.0404141437321</v>
       </c>
       <c r="G28">
@@ -3828,12 +4081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>11</v>
       </c>
       <c r="B29">
-        <f>AVERAGE(A12:E12)</f>
+        <f t="shared" si="0"/>
         <v>2879.5223033764678</v>
       </c>
       <c r="G29">
@@ -3897,12 +4150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>12</v>
       </c>
       <c r="B30">
-        <f>AVERAGE(A13:E13)</f>
+        <f t="shared" si="0"/>
         <v>3162.1970239508382</v>
       </c>
       <c r="G30">
@@ -3966,12 +4219,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>13</v>
       </c>
       <c r="B31">
-        <f>AVERAGE(A14:E14)</f>
+        <f t="shared" si="0"/>
         <v>3430.0269827602838</v>
       </c>
       <c r="G31">
@@ -4035,12 +4288,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>14</v>
       </c>
       <c r="B32">
-        <f>AVERAGE(A15:E15)</f>
+        <f t="shared" si="0"/>
         <v>3716.2486290872016</v>
       </c>
       <c r="G32">
@@ -4104,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G33">
         <v>29</v>
       </c>
@@ -4166,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G34">
         <v>30</v>
       </c>
@@ -4228,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G35">
         <v>31</v>
       </c>
@@ -4290,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="36" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G36">
         <v>32</v>
       </c>
@@ -4352,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G37">
         <v>33</v>
       </c>
@@ -4414,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="38" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G38">
         <v>34</v>
       </c>
@@ -4476,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="39" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G39">
         <v>35</v>
       </c>
@@ -4538,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G40">
         <v>36</v>
       </c>
@@ -4600,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G41">
         <v>37</v>
       </c>
@@ -4662,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="42" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G42">
         <v>38</v>
       </c>
@@ -4724,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="43" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G43">
         <v>39</v>
       </c>
@@ -4786,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="44" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G44">
         <v>40</v>
       </c>
@@ -4848,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G45">
         <v>41</v>
       </c>
@@ -4910,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="46" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G46">
         <v>42</v>
       </c>
@@ -4972,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="47" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G47">
         <v>43</v>
       </c>
@@ -5034,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="48" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G48">
         <v>44</v>
       </c>
@@ -5096,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="49" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G49">
         <v>45</v>
       </c>
@@ -5158,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="50" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G50">
         <v>46</v>
       </c>
@@ -5220,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="51" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G51">
         <v>47</v>
       </c>
@@ -5282,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="52" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G52">
         <v>48</v>
       </c>
@@ -5344,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="53" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G53">
         <v>49</v>
       </c>
@@ -5406,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="54" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G54">
         <v>50</v>
       </c>
@@ -5468,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="55" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G55">
         <v>51</v>
       </c>
@@ -5530,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="56" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G56">
         <v>52</v>
       </c>
@@ -5592,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="57" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G57">
         <v>53</v>
       </c>
@@ -5654,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="58" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G58">
         <v>54</v>
       </c>
@@ -5716,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="59" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G59">
         <v>55</v>
       </c>
@@ -5778,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="60" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G60">
         <v>56</v>
       </c>
@@ -5840,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="61" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G61">
         <v>57</v>
       </c>
@@ -5902,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="62" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G62">
         <v>58</v>
       </c>
@@ -5964,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="63" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G63">
         <v>59</v>
       </c>
@@ -6026,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="64" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G64">
         <v>60</v>
       </c>
@@ -6088,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="65" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G65">
         <v>61</v>
       </c>
@@ -6150,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="66" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G66">
         <v>62</v>
       </c>
@@ -6212,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="67" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G67">
         <v>63</v>
       </c>
@@ -6274,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="68" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G68">
         <v>64</v>
       </c>
@@ -6336,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="69" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G69">
         <v>65</v>
       </c>
@@ -6398,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="70" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G70">
         <v>66</v>
       </c>
@@ -6460,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="71" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G71">
         <v>67</v>
       </c>
@@ -6522,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="72" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G72">
         <v>68</v>
       </c>
@@ -6584,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="73" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G73">
         <v>69</v>
       </c>
@@ -6646,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="74" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G74">
         <v>70</v>
       </c>
@@ -6708,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="75" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G75">
         <v>71</v>
       </c>
@@ -6770,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="76" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G76">
         <v>72</v>
       </c>
@@ -6832,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="77" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G77">
         <v>73</v>
       </c>
@@ -6894,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="78" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G78">
         <v>74</v>
       </c>
@@ -6956,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="79" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G79">
         <v>75</v>
       </c>
@@ -7018,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="80" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G80">
         <v>76</v>
       </c>
@@ -7080,7 +7333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="81" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G81">
         <v>77</v>
       </c>
@@ -7142,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="82" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G82">
         <v>78</v>
       </c>
@@ -7204,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="83" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G83">
         <v>79</v>
       </c>
@@ -7266,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="84" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G84">
         <v>80</v>
       </c>
@@ -7328,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="85" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G85">
         <v>81</v>
       </c>
@@ -7390,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="86" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G86">
         <v>82</v>
       </c>
@@ -7452,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="87" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G87">
         <v>83</v>
       </c>
@@ -7514,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="88" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G88">
         <v>84</v>
       </c>
@@ -7576,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="89" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G89">
         <v>85</v>
       </c>
@@ -7638,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="90" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G90">
         <v>86</v>
       </c>
@@ -7700,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="91" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G91">
         <v>87</v>
       </c>
@@ -7762,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="92" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G92">
         <v>88</v>
       </c>
@@ -7824,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="93" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G93">
         <v>89</v>
       </c>
@@ -7886,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="94" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G94">
         <v>90</v>
       </c>
@@ -7948,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="95" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G95">
         <v>91</v>
       </c>
@@ -8010,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="96" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G96">
         <v>92</v>
       </c>
@@ -8072,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="97" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G97">
         <v>93</v>
       </c>
@@ -8134,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="98" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G98">
         <v>94</v>
       </c>
@@ -8196,7 +8449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="99" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G99">
         <v>95</v>
       </c>
@@ -8258,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="100" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G100">
         <v>96</v>
       </c>
@@ -8320,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="101" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G101">
         <v>97</v>
       </c>
@@ -8382,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="102" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G102">
         <v>98</v>
       </c>
@@ -8444,7 +8697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="103" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G103">
         <v>99</v>
       </c>
@@ -8506,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="104" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G104">
         <v>100</v>
       </c>
@@ -8568,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="105" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G105">
         <v>101</v>
       </c>
@@ -8630,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="106" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G106">
         <v>102</v>
       </c>
@@ -8692,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="107" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G107">
         <v>103</v>
       </c>
@@ -8754,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="108" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G108">
         <v>104</v>
       </c>
@@ -8816,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="109" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G109">
         <v>105</v>
       </c>
@@ -8878,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="110" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G110">
         <v>106</v>
       </c>
@@ -8940,7 +9193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="111" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G111">
         <v>107</v>
       </c>
@@ -9002,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="112" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G112">
         <v>108</v>
       </c>
@@ -9064,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="113" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G113">
         <v>109</v>
       </c>
@@ -9126,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="114" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G114">
         <v>110</v>
       </c>
@@ -9188,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="115" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G115">
         <v>111</v>
       </c>
@@ -9250,7 +9503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="116" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G116">
         <v>112</v>
       </c>
@@ -9312,7 +9565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="117" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G117">
         <v>113</v>
       </c>
@@ -9374,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="118" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G118">
         <v>114</v>
       </c>
@@ -9436,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="119" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G119">
         <v>115</v>
       </c>
@@ -9498,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="120" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G120">
         <v>116</v>
       </c>
@@ -9560,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="121" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G121">
         <v>117</v>
       </c>
@@ -9622,7 +9875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="122" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G122">
         <v>118</v>
       </c>
@@ -9684,7 +9937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="123" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G123">
         <v>119</v>
       </c>
@@ -9746,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="124" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G124">
         <v>120</v>
       </c>
@@ -9808,7 +10061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="125" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G125">
         <v>121</v>
       </c>
@@ -9870,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="126" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G126">
         <v>122</v>
       </c>
@@ -9932,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="127" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G127">
         <v>123</v>
       </c>
@@ -9994,7 +10247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="128" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G128">
         <v>124</v>
       </c>
@@ -10056,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="129" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G129">
         <v>125</v>
       </c>
@@ -10118,7 +10371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="130" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G130">
         <v>126</v>
       </c>
@@ -10180,7 +10433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="131" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G131">
         <v>127</v>
       </c>
@@ -10242,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="132" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G132">
         <v>128</v>
       </c>
@@ -10304,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="133" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G133">
         <v>129</v>
       </c>
@@ -10366,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="134" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G134">
         <v>130</v>
       </c>
@@ -10428,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="135" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G135">
         <v>131</v>
       </c>
@@ -10490,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="136" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G136">
         <v>132</v>
       </c>
@@ -10552,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="137" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G137">
         <v>133</v>
       </c>
@@ -10614,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="138" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G138">
         <v>134</v>
       </c>
@@ -10676,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="139" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G139">
         <v>135</v>
       </c>
@@ -10738,7 +10991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="140" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G140">
         <v>136</v>
       </c>
@@ -10800,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="141" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G141">
         <v>137</v>
       </c>
@@ -10862,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="142" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G142">
         <v>138</v>
       </c>
@@ -10924,7 +11177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="143" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G143">
         <v>139</v>
       </c>
@@ -10986,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="144" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G144">
         <v>140</v>
       </c>
@@ -11048,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="145" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G145">
         <v>141</v>
       </c>
@@ -11110,7 +11363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="146" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G146">
         <v>142</v>
       </c>
@@ -11172,7 +11425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="147" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G147">
         <v>143</v>
       </c>
@@ -11234,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="148" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G148">
         <v>144</v>
       </c>
@@ -11296,7 +11549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="149" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G149">
         <v>145</v>
       </c>
@@ -11358,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="150" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G150">
         <v>146</v>
       </c>
@@ -11420,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="151" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G151">
         <v>147</v>
       </c>
@@ -11482,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="152" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G152">
         <v>148</v>
       </c>
@@ -11544,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="153" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G153">
         <v>149</v>
       </c>
@@ -11606,7 +11859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="154" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G154">
         <v>150</v>
       </c>
@@ -11668,7 +11921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="155" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G155">
         <v>151</v>
       </c>
@@ -11730,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="156" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G156">
         <v>152</v>
       </c>
@@ -11792,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="157" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G157">
         <v>153</v>
       </c>
@@ -11854,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="158" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G158">
         <v>154</v>
       </c>
@@ -11916,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="159" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G159">
         <v>155</v>
       </c>
@@ -11978,7 +12231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="160" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G160">
         <v>156</v>
       </c>
@@ -12040,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="161" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G161">
         <v>157</v>
       </c>
@@ -12102,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="162" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G162">
         <v>158</v>
       </c>
@@ -12164,7 +12417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="163" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G163">
         <v>159</v>
       </c>
@@ -12226,7 +12479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="164" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G164">
         <v>160</v>
       </c>
@@ -12288,7 +12541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="165" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G165">
         <v>161</v>
       </c>
@@ -12350,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="166" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G166">
         <v>162</v>
       </c>
@@ -12412,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="167" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G167">
         <v>163</v>
       </c>
@@ -12474,7 +12727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="168" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G168">
         <v>164</v>
       </c>
@@ -12536,7 +12789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="169" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G169">
         <v>165</v>
       </c>
@@ -12598,7 +12851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="170" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G170">
         <v>166</v>
       </c>
@@ -12660,7 +12913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="171" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G171">
         <v>167</v>
       </c>
@@ -12722,7 +12975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="172" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G172">
         <v>168</v>
       </c>
@@ -12784,7 +13037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="173" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G173">
         <v>169</v>
       </c>
@@ -12846,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="174" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G174">
         <v>170</v>
       </c>
@@ -12908,7 +13161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="175" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G175">
         <v>171</v>
       </c>
@@ -12970,7 +13223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="176" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G176">
         <v>172</v>
       </c>
@@ -13032,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="177" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G177">
         <v>173</v>
       </c>
@@ -13094,7 +13347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="178" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G178">
         <v>174</v>
       </c>
@@ -13156,7 +13409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="179" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G179">
         <v>175</v>
       </c>
@@ -13218,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="180" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G180">
         <v>176</v>
       </c>
@@ -13280,7 +13533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="181" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G181">
         <v>177</v>
       </c>
@@ -13342,7 +13595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="182" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G182">
         <v>178</v>
       </c>
@@ -13404,7 +13657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="183" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G183">
         <v>179</v>
       </c>
@@ -13466,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="184" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G184">
         <v>180</v>
       </c>
@@ -13528,7 +13781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="185" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G185">
         <v>181</v>
       </c>
@@ -13590,7 +13843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="186" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G186">
         <v>182</v>
       </c>
@@ -13652,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="187" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G187">
         <v>183</v>
       </c>
@@ -13714,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="188" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G188">
         <v>184</v>
       </c>
@@ -13776,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="189" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G189">
         <v>185</v>
       </c>
@@ -13838,7 +14091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="190" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G190">
         <v>186</v>
       </c>
@@ -13900,7 +14153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="191" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G191">
         <v>187</v>
       </c>
@@ -13962,7 +14215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="192" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G192">
         <v>188</v>
       </c>
@@ -14024,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="193" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G193">
         <v>189</v>
       </c>
@@ -14086,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="194" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G194">
         <v>190</v>
       </c>
@@ -14148,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="195" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G195">
         <v>191</v>
       </c>
@@ -14210,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="196" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G196">
         <v>192</v>
       </c>
@@ -14272,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="197" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G197">
         <v>193</v>
       </c>
@@ -14334,7 +14587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="198" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G198">
         <v>194</v>
       </c>
@@ -14396,7 +14649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="199" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G199">
         <v>195</v>
       </c>
@@ -14458,7 +14711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="200" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G200">
         <v>196</v>
       </c>
@@ -14520,7 +14773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="201" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G201">
         <v>197</v>
       </c>
@@ -14582,7 +14835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="202" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G202">
         <v>198</v>
       </c>
@@ -14644,7 +14897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="203" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G203">
         <v>199</v>
       </c>
@@ -14706,7 +14959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="204" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G204">
         <v>200</v>
       </c>
@@ -14768,7 +15021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="205" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G205">
         <v>201</v>
       </c>
@@ -14830,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="206" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G206">
         <v>202</v>
       </c>
@@ -14892,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="207" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G207">
         <v>203</v>
       </c>
@@ -14954,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="208" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G208">
         <v>204</v>
       </c>
@@ -15016,7 +15269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="209" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G209">
         <v>205</v>
       </c>
@@ -15078,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="210" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G210">
         <v>206</v>
       </c>
@@ -15140,7 +15393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="211" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G211">
         <v>207</v>
       </c>
@@ -15202,7 +15455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="212" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G212">
         <v>208</v>
       </c>
@@ -15264,7 +15517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="213" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G213">
         <v>209</v>
       </c>
@@ -15343,13 +15596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551263FE-3373-42FF-9775-9C5DC33446D5}">
   <dimension ref="A1:Z213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M202" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y217" sqref="Y217"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -15365,38 +15618,38 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A15">_xlfn.UNIQUE(H4:H213)</f>
         <v>0</v>
@@ -15433,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>394.639194702297</v>
       </c>
@@ -15510,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>806.13308847452299</v>
       </c>
@@ -15587,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1219.02159746089</v>
       </c>
@@ -15664,7 +15917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1635.85971300813</v>
       </c>
@@ -15741,7 +15994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2015.5419325361399</v>
       </c>
@@ -15818,7 +16071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2446.4091083660401</v>
       </c>
@@ -15895,7 +16148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2812.0121844172199</v>
       </c>
@@ -15972,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3206.06080469884</v>
       </c>
@@ -16049,7 +16302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3552.9341597903999</v>
       </c>
@@ -16126,7 +16379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3876.2448126280001</v>
       </c>
@@ -16203,7 +16456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>4211.0005236034503</v>
       </c>
@@ -16280,7 +16533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4588.4806652581701</v>
       </c>
@@ -16357,7 +16610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4947.0030688287497</v>
       </c>
@@ -16434,7 +16687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G16">
         <v>12</v>
       </c>
@@ -16496,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G17">
         <v>13</v>
       </c>
@@ -16558,8 +16811,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G18">
@@ -16623,12 +16876,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
-        <f>AVERAGE(A2:E2)</f>
+        <f t="shared" ref="B19:B32" si="0">AVERAGE(A2:E2)</f>
         <v>0</v>
       </c>
       <c r="G19">
@@ -16692,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2</v>
       </c>
@@ -16761,12 +17014,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21">
-        <f>AVERAGE(A4:E4)</f>
+        <f t="shared" si="0"/>
         <v>788.49116183250919</v>
       </c>
       <c r="G21">
@@ -16830,12 +17083,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
-        <f>AVERAGE(A5:E5)</f>
+        <f t="shared" si="0"/>
         <v>1158.2728321349218</v>
       </c>
       <c r="G22">
@@ -16899,12 +17152,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23">
-        <f>AVERAGE(A6:E6)</f>
+        <f t="shared" si="0"/>
         <v>1521.492408090834</v>
       </c>
       <c r="G23">
@@ -16968,12 +17221,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24">
-        <f>AVERAGE(A7:E7)</f>
+        <f t="shared" si="0"/>
         <v>1881.669355119818</v>
       </c>
       <c r="G24">
@@ -17037,12 +17290,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25">
-        <f>AVERAGE(A8:E8)</f>
+        <f t="shared" si="0"/>
         <v>2265.3423840846563</v>
       </c>
       <c r="G25">
@@ -17106,12 +17359,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>8</v>
       </c>
       <c r="B26">
-        <f>AVERAGE(A9:E9)</f>
+        <f t="shared" si="0"/>
         <v>2625.7351217642777</v>
       </c>
       <c r="G26">
@@ -17175,12 +17428,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>9</v>
       </c>
       <c r="B27">
-        <f>AVERAGE(A10:E10)</f>
+        <f t="shared" si="0"/>
         <v>2997.2582025528036</v>
       </c>
       <c r="G27">
@@ -17244,12 +17497,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>10</v>
       </c>
       <c r="B28">
-        <f>AVERAGE(A11:E11)</f>
+        <f t="shared" si="0"/>
         <v>3372.1812553317882</v>
       </c>
       <c r="G28">
@@ -17313,12 +17566,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>11</v>
       </c>
       <c r="B29">
-        <f>AVERAGE(A12:E12)</f>
+        <f t="shared" si="0"/>
         <v>3738.7525159904135</v>
       </c>
       <c r="G29">
@@ -17382,12 +17635,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>12</v>
       </c>
       <c r="B30">
-        <f>AVERAGE(A13:E13)</f>
+        <f t="shared" si="0"/>
         <v>4102.7998798681656</v>
       </c>
       <c r="G30">
@@ -17451,12 +17704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>13</v>
       </c>
       <c r="B31">
-        <f>AVERAGE(A14:E14)</f>
+        <f t="shared" si="0"/>
         <v>4456.7885311498003</v>
       </c>
       <c r="G31">
@@ -17520,12 +17773,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>14</v>
       </c>
       <c r="B32">
-        <f>AVERAGE(A15:E15)</f>
+        <f t="shared" si="0"/>
         <v>4822.4987979346824</v>
       </c>
       <c r="G32">
@@ -17589,7 +17842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G33">
         <v>29</v>
       </c>
@@ -17651,7 +17904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G34">
         <v>30</v>
       </c>
@@ -17713,7 +17966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G35">
         <v>31</v>
       </c>
@@ -17775,7 +18028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="36" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G36">
         <v>32</v>
       </c>
@@ -17837,7 +18090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G37">
         <v>33</v>
       </c>
@@ -17899,7 +18152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="38" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G38">
         <v>34</v>
       </c>
@@ -17961,7 +18214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="39" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G39">
         <v>35</v>
       </c>
@@ -18023,7 +18276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G40">
         <v>36</v>
       </c>
@@ -18085,7 +18338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G41">
         <v>37</v>
       </c>
@@ -18147,7 +18400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="42" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G42">
         <v>38</v>
       </c>
@@ -18209,7 +18462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="43" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G43">
         <v>39</v>
       </c>
@@ -18271,7 +18524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="44" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G44">
         <v>40</v>
       </c>
@@ -18333,7 +18586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G45">
         <v>41</v>
       </c>
@@ -18395,7 +18648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="46" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G46">
         <v>42</v>
       </c>
@@ -18457,7 +18710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="47" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G47">
         <v>43</v>
       </c>
@@ -18519,7 +18772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="48" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G48">
         <v>44</v>
       </c>
@@ -18581,7 +18834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="49" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G49">
         <v>45</v>
       </c>
@@ -18643,7 +18896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="50" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G50">
         <v>46</v>
       </c>
@@ -18705,7 +18958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="51" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G51">
         <v>47</v>
       </c>
@@ -18767,7 +19020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="52" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G52">
         <v>48</v>
       </c>
@@ -18829,7 +19082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="53" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G53">
         <v>49</v>
       </c>
@@ -18891,7 +19144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="54" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G54">
         <v>50</v>
       </c>
@@ -18953,7 +19206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="55" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G55">
         <v>51</v>
       </c>
@@ -19015,7 +19268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="56" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G56">
         <v>52</v>
       </c>
@@ -19077,7 +19330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="57" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G57">
         <v>53</v>
       </c>
@@ -19139,7 +19392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="58" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G58">
         <v>54</v>
       </c>
@@ -19201,7 +19454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="59" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G59">
         <v>55</v>
       </c>
@@ -19263,7 +19516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="60" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G60">
         <v>56</v>
       </c>
@@ -19325,7 +19578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="61" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G61">
         <v>57</v>
       </c>
@@ -19387,7 +19640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="62" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G62">
         <v>58</v>
       </c>
@@ -19449,7 +19702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="63" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G63">
         <v>59</v>
       </c>
@@ -19511,7 +19764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="64" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G64">
         <v>60</v>
       </c>
@@ -19573,7 +19826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="65" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G65">
         <v>61</v>
       </c>
@@ -19635,7 +19888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="66" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G66">
         <v>62</v>
       </c>
@@ -19697,7 +19950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="67" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G67">
         <v>63</v>
       </c>
@@ -19759,7 +20012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="68" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G68">
         <v>64</v>
       </c>
@@ -19821,7 +20074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="69" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G69">
         <v>65</v>
       </c>
@@ -19883,7 +20136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="70" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G70">
         <v>66</v>
       </c>
@@ -19945,7 +20198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="71" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G71">
         <v>67</v>
       </c>
@@ -20007,7 +20260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="72" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G72">
         <v>68</v>
       </c>
@@ -20069,7 +20322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="73" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G73">
         <v>69</v>
       </c>
@@ -20131,7 +20384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="74" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G74">
         <v>70</v>
       </c>
@@ -20193,7 +20446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="75" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G75">
         <v>71</v>
       </c>
@@ -20255,7 +20508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="76" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G76">
         <v>72</v>
       </c>
@@ -20317,7 +20570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="77" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G77">
         <v>73</v>
       </c>
@@ -20379,7 +20632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="78" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G78">
         <v>74</v>
       </c>
@@ -20441,7 +20694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="79" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G79">
         <v>75</v>
       </c>
@@ -20503,7 +20756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="80" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G80">
         <v>76</v>
       </c>
@@ -20565,7 +20818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="81" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G81">
         <v>77</v>
       </c>
@@ -20627,7 +20880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="82" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G82">
         <v>78</v>
       </c>
@@ -20689,7 +20942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="83" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G83">
         <v>79</v>
       </c>
@@ -20751,7 +21004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="84" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G84">
         <v>80</v>
       </c>
@@ -20813,7 +21066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="85" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G85">
         <v>81</v>
       </c>
@@ -20875,7 +21128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="86" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G86">
         <v>82</v>
       </c>
@@ -20937,7 +21190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="87" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G87">
         <v>83</v>
       </c>
@@ -20999,7 +21252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="88" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G88">
         <v>84</v>
       </c>
@@ -21061,7 +21314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="89" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G89">
         <v>85</v>
       </c>
@@ -21123,7 +21376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="90" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G90">
         <v>86</v>
       </c>
@@ -21185,7 +21438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="91" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G91">
         <v>87</v>
       </c>
@@ -21247,7 +21500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="92" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G92">
         <v>88</v>
       </c>
@@ -21309,7 +21562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="93" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G93">
         <v>89</v>
       </c>
@@ -21371,7 +21624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="94" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G94">
         <v>90</v>
       </c>
@@ -21433,7 +21686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="95" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G95">
         <v>91</v>
       </c>
@@ -21495,7 +21748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="96" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G96">
         <v>92</v>
       </c>
@@ -21557,7 +21810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="97" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G97">
         <v>93</v>
       </c>
@@ -21619,7 +21872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="98" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G98">
         <v>94</v>
       </c>
@@ -21681,7 +21934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="99" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G99">
         <v>95</v>
       </c>
@@ -21743,7 +21996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="100" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G100">
         <v>96</v>
       </c>
@@ -21805,7 +22058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="101" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G101">
         <v>97</v>
       </c>
@@ -21867,7 +22120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="102" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G102">
         <v>98</v>
       </c>
@@ -21929,7 +22182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="103" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G103">
         <v>99</v>
       </c>
@@ -21991,7 +22244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="104" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G104">
         <v>100</v>
       </c>
@@ -22053,7 +22306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="105" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G105">
         <v>101</v>
       </c>
@@ -22115,7 +22368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="106" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G106">
         <v>102</v>
       </c>
@@ -22177,7 +22430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="107" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G107">
         <v>103</v>
       </c>
@@ -22239,7 +22492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="108" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G108">
         <v>104</v>
       </c>
@@ -22301,7 +22554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="109" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G109">
         <v>105</v>
       </c>
@@ -22363,7 +22616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="110" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G110">
         <v>106</v>
       </c>
@@ -22425,7 +22678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="111" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G111">
         <v>107</v>
       </c>
@@ -22487,7 +22740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="112" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G112">
         <v>108</v>
       </c>
@@ -22549,7 +22802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="113" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G113">
         <v>109</v>
       </c>
@@ -22611,7 +22864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="114" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G114">
         <v>110</v>
       </c>
@@ -22673,7 +22926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="115" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G115">
         <v>111</v>
       </c>
@@ -22735,7 +22988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="116" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G116">
         <v>112</v>
       </c>
@@ -22797,7 +23050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="117" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G117">
         <v>113</v>
       </c>
@@ -22859,7 +23112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="118" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G118">
         <v>114</v>
       </c>
@@ -22921,7 +23174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="119" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G119">
         <v>115</v>
       </c>
@@ -22983,7 +23236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="120" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G120">
         <v>116</v>
       </c>
@@ -23045,7 +23298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="121" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G121">
         <v>117</v>
       </c>
@@ -23107,7 +23360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="122" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G122">
         <v>118</v>
       </c>
@@ -23169,7 +23422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="123" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G123">
         <v>119</v>
       </c>
@@ -23231,7 +23484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="124" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G124">
         <v>120</v>
       </c>
@@ -23293,7 +23546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="125" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G125">
         <v>121</v>
       </c>
@@ -23355,7 +23608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="126" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G126">
         <v>122</v>
       </c>
@@ -23417,7 +23670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="127" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G127">
         <v>123</v>
       </c>
@@ -23479,7 +23732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="128" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G128">
         <v>124</v>
       </c>
@@ -23541,7 +23794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="129" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G129">
         <v>125</v>
       </c>
@@ -23603,7 +23856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="130" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G130">
         <v>126</v>
       </c>
@@ -23665,7 +23918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="131" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G131">
         <v>127</v>
       </c>
@@ -23727,7 +23980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="132" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G132">
         <v>128</v>
       </c>
@@ -23789,7 +24042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="133" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G133">
         <v>129</v>
       </c>
@@ -23851,7 +24104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="134" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G134">
         <v>130</v>
       </c>
@@ -23913,7 +24166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="135" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G135">
         <v>131</v>
       </c>
@@ -23975,7 +24228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="136" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G136">
         <v>132</v>
       </c>
@@ -24037,7 +24290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="137" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G137">
         <v>133</v>
       </c>
@@ -24099,7 +24352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="138" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G138">
         <v>134</v>
       </c>
@@ -24161,7 +24414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="139" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G139">
         <v>135</v>
       </c>
@@ -24223,7 +24476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="140" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G140">
         <v>136</v>
       </c>
@@ -24285,7 +24538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="141" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G141">
         <v>137</v>
       </c>
@@ -24347,7 +24600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="142" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G142">
         <v>138</v>
       </c>
@@ -24409,7 +24662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="143" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G143">
         <v>139</v>
       </c>
@@ -24471,7 +24724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="144" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G144">
         <v>140</v>
       </c>
@@ -24533,7 +24786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="145" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G145">
         <v>141</v>
       </c>
@@ -24595,7 +24848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="146" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G146">
         <v>142</v>
       </c>
@@ -24657,7 +24910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="147" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G147">
         <v>143</v>
       </c>
@@ -24719,7 +24972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="148" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G148">
         <v>144</v>
       </c>
@@ -24781,7 +25034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="149" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G149">
         <v>145</v>
       </c>
@@ -24843,7 +25096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="150" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G150">
         <v>146</v>
       </c>
@@ -24905,7 +25158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="151" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G151">
         <v>147</v>
       </c>
@@ -24967,7 +25220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="152" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G152">
         <v>148</v>
       </c>
@@ -25029,7 +25282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="153" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G153">
         <v>149</v>
       </c>
@@ -25091,7 +25344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="154" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G154">
         <v>150</v>
       </c>
@@ -25153,7 +25406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="155" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G155">
         <v>151</v>
       </c>
@@ -25215,7 +25468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="156" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G156">
         <v>152</v>
       </c>
@@ -25277,7 +25530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="157" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G157">
         <v>153</v>
       </c>
@@ -25339,7 +25592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="158" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G158">
         <v>154</v>
       </c>
@@ -25401,7 +25654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="159" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G159">
         <v>155</v>
       </c>
@@ -25463,7 +25716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="160" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G160">
         <v>156</v>
       </c>
@@ -25525,7 +25778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="161" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G161">
         <v>157</v>
       </c>
@@ -25587,7 +25840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="162" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G162">
         <v>158</v>
       </c>
@@ -25649,7 +25902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="163" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G163">
         <v>159</v>
       </c>
@@ -25711,7 +25964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="164" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G164">
         <v>160</v>
       </c>
@@ -25773,7 +26026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="165" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G165">
         <v>161</v>
       </c>
@@ -25835,7 +26088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="166" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G166">
         <v>162</v>
       </c>
@@ -25897,7 +26150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="167" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G167">
         <v>163</v>
       </c>
@@ -25959,7 +26212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="168" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G168">
         <v>164</v>
       </c>
@@ -26021,7 +26274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="169" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G169">
         <v>165</v>
       </c>
@@ -26083,7 +26336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="170" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G170">
         <v>166</v>
       </c>
@@ -26145,7 +26398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="171" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G171">
         <v>167</v>
       </c>
@@ -26207,7 +26460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="172" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G172">
         <v>168</v>
       </c>
@@ -26269,7 +26522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="173" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G173">
         <v>169</v>
       </c>
@@ -26331,7 +26584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="174" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G174">
         <v>170</v>
       </c>
@@ -26393,7 +26646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="175" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G175">
         <v>171</v>
       </c>
@@ -26455,7 +26708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="176" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G176">
         <v>172</v>
       </c>
@@ -26517,7 +26770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="177" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G177">
         <v>173</v>
       </c>
@@ -26579,7 +26832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="178" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G178">
         <v>174</v>
       </c>
@@ -26641,7 +26894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="179" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G179">
         <v>175</v>
       </c>
@@ -26703,7 +26956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="180" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G180">
         <v>176</v>
       </c>
@@ -26765,7 +27018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="181" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G181">
         <v>177</v>
       </c>
@@ -26827,7 +27080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="182" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G182">
         <v>178</v>
       </c>
@@ -26889,7 +27142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="183" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G183">
         <v>179</v>
       </c>
@@ -26951,7 +27204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="184" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G184">
         <v>180</v>
       </c>
@@ -27013,7 +27266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="185" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G185">
         <v>181</v>
       </c>
@@ -27075,7 +27328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="186" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G186">
         <v>182</v>
       </c>
@@ -27137,7 +27390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="187" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G187">
         <v>183</v>
       </c>
@@ -27199,7 +27452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="188" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G188">
         <v>184</v>
       </c>
@@ -27261,7 +27514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="189" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G189">
         <v>185</v>
       </c>
@@ -27323,7 +27576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="190" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G190">
         <v>186</v>
       </c>
@@ -27385,7 +27638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="191" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G191">
         <v>187</v>
       </c>
@@ -27447,7 +27700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="192" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G192">
         <v>188</v>
       </c>
@@ -27509,7 +27762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="193" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G193">
         <v>189</v>
       </c>
@@ -27571,7 +27824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="194" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G194">
         <v>190</v>
       </c>
@@ -27633,7 +27886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="195" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G195">
         <v>191</v>
       </c>
@@ -27695,7 +27948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="196" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G196">
         <v>192</v>
       </c>
@@ -27757,7 +28010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="197" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G197">
         <v>193</v>
       </c>
@@ -27819,7 +28072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="198" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G198">
         <v>194</v>
       </c>
@@ -27881,7 +28134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="199" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G199">
         <v>195</v>
       </c>
@@ -27943,7 +28196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="200" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G200">
         <v>196</v>
       </c>
@@ -28005,7 +28258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="201" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G201">
         <v>197</v>
       </c>
@@ -28067,7 +28320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="202" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G202">
         <v>198</v>
       </c>
@@ -28129,7 +28382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="203" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G203">
         <v>199</v>
       </c>
@@ -28191,7 +28444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="204" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G204">
         <v>200</v>
       </c>
@@ -28253,7 +28506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="205" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G205">
         <v>201</v>
       </c>
@@ -28315,7 +28568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="206" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G206">
         <v>202</v>
       </c>
@@ -28377,7 +28630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="207" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G207">
         <v>203</v>
       </c>
@@ -28439,7 +28692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="208" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G208">
         <v>204</v>
       </c>
@@ -28501,7 +28754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="209" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G209">
         <v>205</v>
       </c>
@@ -28563,7 +28816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="210" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G210">
         <v>206</v>
       </c>
@@ -28625,7 +28878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="211" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G211">
         <v>207</v>
       </c>
@@ -28687,7 +28940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="212" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G212">
         <v>208</v>
       </c>
@@ -28749,7 +29002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="7:26" x14ac:dyDescent="0.45">
+    <row r="213" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G213">
         <v>209</v>
       </c>
@@ -28819,6 +29072,419 @@
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:Z1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485ECA16-A4F9-49DB-9E31-0245844E82A5}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_1'!B18:B227)"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_2'!B18:B227)"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_3'!B18:B227)"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_4'!B18:B227)"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_5'!B18:B227)"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <f ca="1">AVERAGE(A3:E3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.164)</f>
+        <v>274.16399999999999</v>
+      </c>
+      <c r="B4" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.9389)</f>
+        <v>341.93889999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),308.9241)</f>
+        <v>308.92410000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.1773)</f>
+        <v>373.1773</v>
+      </c>
+      <c r="E4" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.3646)</f>
+        <v>321.3646</v>
+      </c>
+      <c r="G4" s="13">
+        <f ca="1">AVERAGE(A4:E4)</f>
+        <v>323.91378000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),505.162)</f>
+        <v>505.16199999999998</v>
+      </c>
+      <c r="B5" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0729)</f>
+        <v>673.0729</v>
+      </c>
+      <c r="C5" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),592.9403)</f>
+        <v>592.94029999999998</v>
+      </c>
+      <c r="D5" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),697.8713)</f>
+        <v>697.87130000000002</v>
+      </c>
+      <c r="E5" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.5613)</f>
+        <v>609.56129999999996</v>
+      </c>
+      <c r="G5" s="13">
+        <f ca="1">AVERAGE(A5:E5)</f>
+        <v>615.72155999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),767.7499)</f>
+        <v>767.74990000000003</v>
+      </c>
+      <c r="B6" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),947.375)</f>
+        <v>947.375</v>
+      </c>
+      <c r="C6" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),891.5325)</f>
+        <v>891.53250000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),954.6152)</f>
+        <v>954.61519999999996</v>
+      </c>
+      <c r="E6" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),939.1269)</f>
+        <v>939.12689999999998</v>
+      </c>
+      <c r="G6" s="13">
+        <f ca="1">AVERAGE(A6:E6)</f>
+        <v>900.07990000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1033.241)</f>
+        <v>1033.241</v>
+      </c>
+      <c r="B7" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1281.33)</f>
+        <v>1281.33</v>
+      </c>
+      <c r="C7" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1181.209)</f>
+        <v>1181.2090000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1313.951)</f>
+        <v>1313.951</v>
+      </c>
+      <c r="E7" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1222.889)</f>
+        <v>1222.8889999999999</v>
+      </c>
+      <c r="G7" s="13">
+        <f ca="1">AVERAGE(A7:E7)</f>
+        <v>1206.5239999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1274.022)</f>
+        <v>1274.0219999999999</v>
+      </c>
+      <c r="B8" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1596.304)</f>
+        <v>1596.3040000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1491.184)</f>
+        <v>1491.184</v>
+      </c>
+      <c r="D8" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1631.933)</f>
+        <v>1631.933</v>
+      </c>
+      <c r="E8" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1548.501)</f>
+        <v>1548.501</v>
+      </c>
+      <c r="G8" s="13">
+        <f ca="1">AVERAGE(A8:E8)</f>
+        <v>1508.3888000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1555.995)</f>
+        <v>1555.9949999999999</v>
+      </c>
+      <c r="B9" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1916.839)</f>
+        <v>1916.8389999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1756.699)</f>
+        <v>1756.6990000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.885)</f>
+        <v>2025.885</v>
+      </c>
+      <c r="E9" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1834.488)</f>
+        <v>1834.4880000000001</v>
+      </c>
+      <c r="G9" s="13">
+        <f ca="1">AVERAGE(A9:E9)</f>
+        <v>1817.9811999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1795.269)</f>
+        <v>1795.269</v>
+      </c>
+      <c r="B10" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2205.767)</f>
+        <v>2205.7669999999998</v>
+      </c>
+      <c r="C10" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2072.984)</f>
+        <v>2072.9839999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2333.415)</f>
+        <v>2333.415</v>
+      </c>
+      <c r="E10" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2162.339)</f>
+        <v>2162.3389999999999</v>
+      </c>
+      <c r="G10" s="13">
+        <f ca="1">AVERAGE(A10:E10)</f>
+        <v>2113.9548000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2041.8)</f>
+        <v>2041.8</v>
+      </c>
+      <c r="B11" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2479.801)</f>
+        <v>2479.8009999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2425.643)</f>
+        <v>2425.643</v>
+      </c>
+      <c r="D11" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2676.279)</f>
+        <v>2676.279</v>
+      </c>
+      <c r="E11" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2452.787)</f>
+        <v>2452.7869999999998</v>
+      </c>
+      <c r="G11" s="13">
+        <f ca="1">AVERAGE(A11:E11)</f>
+        <v>2415.2619999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2307.458)</f>
+        <v>2307.4580000000001</v>
+      </c>
+      <c r="B12" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2791.474)</f>
+        <v>2791.4740000000002</v>
+      </c>
+      <c r="C12" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2720.433)</f>
+        <v>2720.433</v>
+      </c>
+      <c r="D12" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2995.29)</f>
+        <v>2995.29</v>
+      </c>
+      <c r="E12" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2754.386)</f>
+        <v>2754.386</v>
+      </c>
+      <c r="G12" s="13">
+        <f ca="1">AVERAGE(A12:E12)</f>
+        <v>2713.8082000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2545.226)</f>
+        <v>2545.2260000000001</v>
+      </c>
+      <c r="B13" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3065.673)</f>
+        <v>3065.6729999999998</v>
+      </c>
+      <c r="C13" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3023.57)</f>
+        <v>3023.57</v>
+      </c>
+      <c r="D13" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3331.802)</f>
+        <v>3331.8020000000001</v>
+      </c>
+      <c r="E13" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3045.074)</f>
+        <v>3045.0740000000001</v>
+      </c>
+      <c r="G13" s="13">
+        <f ca="1">AVERAGE(A13:E13)</f>
+        <v>3002.2689999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2813.757)</f>
+        <v>2813.7570000000001</v>
+      </c>
+      <c r="B14" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3396.157)</f>
+        <v>3396.1570000000002</v>
+      </c>
+      <c r="C14" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3278.844)</f>
+        <v>3278.8440000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3637.055)</f>
+        <v>3637.0549999999998</v>
+      </c>
+      <c r="E14" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3347.405)</f>
+        <v>3347.4050000000002</v>
+      </c>
+      <c r="G14" s="13">
+        <f ca="1">AVERAGE(A14:E14)</f>
+        <v>3294.6436000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3065.845)</f>
+        <v>3065.8449999999998</v>
+      </c>
+      <c r="B15" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3655.226)</f>
+        <v>3655.2260000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3558.464)</f>
+        <v>3558.4639999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3962.654)</f>
+        <v>3962.654</v>
+      </c>
+      <c r="E15" s="8">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3623.991)</f>
+        <v>3623.991</v>
+      </c>
+      <c r="G15" s="13">
+        <f ca="1">AVERAGE(A15:E15)</f>
+        <v>3573.2359999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="9">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3331.893)</f>
+        <v>3331.893</v>
+      </c>
+      <c r="B16" s="10">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3962.403)</f>
+        <v>3962.4029999999998</v>
+      </c>
+      <c r="C16" s="10">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3850.724)</f>
+        <v>3850.7240000000002</v>
+      </c>
+      <c r="D16" s="10">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4304.363)</f>
+        <v>4304.3630000000003</v>
+      </c>
+      <c r="E16" s="11">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3898.378)</f>
+        <v>3898.3780000000002</v>
+      </c>
+      <c r="G16" s="14">
+        <f ca="1">AVERAGE(A16:E16)</f>
+        <v>3869.5522000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Files/Combined Overview.xlsx
+++ b/Data Files/Combined Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\course\S2\Q2\agent based modeling\final project\model\github\SEN1211-group5\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB350D6-F86B-4B63-AA95-6D7A9C0514CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3152F-C17A-48D9-8D4F-81F5CF0671F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{4BD16997-7691-43B8-9BA7-0FE4E4FEADE7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{4BD16997-7691-43B8-9BA7-0FE4E4FEADE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,6 +142,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,13 +316,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,14 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -446,7 +450,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="14"/>
               </c:numCache>
             </c:numRef>
@@ -500,7 +504,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="14"/>
               </c:numCache>
             </c:numRef>
@@ -554,7 +558,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -625,7 +629,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -650,7 +654,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -746,7 +750,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -884,7 +888,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1885,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED02BC-5B74-4F22-809F-0D4984C7C989}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1931,179 +1935,208 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="15">
         <f ca="1">'50% compaign_overview'!G3</f>
         <v>0</v>
       </c>
-      <c r="D3" cm="1">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" cm="1">
         <f t="array" ref="D3:D16">'33 each multiple runs'!B19:B32</f>
         <v>0</v>
       </c>
-      <c r="E3" cm="1">
+      <c r="E3" s="15" cm="1">
         <f t="array" ref="E3:E16">'no policy multiple runs'!B19:B32</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="15">
         <f ca="1">'50% compaign_overview'!G4</f>
         <v>323.91378000000003</v>
       </c>
-      <c r="D4">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15">
         <v>293.92013576671258</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="15">
         <v>389.76102129297459</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="A5" s="15">
         <f ca="1">'50% compaign_overview'!G5</f>
         <v>615.72155999999995</v>
       </c>
-      <c r="D5">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>580.47123775508658</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <v>788.49116183250919</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="A6" s="15">
         <f ca="1">'50% compaign_overview'!G6</f>
         <v>900.07990000000007</v>
       </c>
-      <c r="D6">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
         <v>881.12238084144826</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <v>1158.2728321349218</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="A7" s="15">
         <f ca="1">'50% compaign_overview'!G7</f>
         <v>1206.5239999999999</v>
       </c>
-      <c r="D7">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
         <v>1173.991886857686</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="15">
         <v>1521.492408090834</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="A8" s="15">
         <f ca="1">'50% compaign_overview'!G8</f>
         <v>1508.3888000000002</v>
       </c>
-      <c r="D8">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
         <v>1462.4910897757698</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="15">
         <v>1881.669355119818</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="A9" s="15">
         <f ca="1">'50% compaign_overview'!G9</f>
         <v>1817.9811999999997</v>
       </c>
-      <c r="D9">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>1736.467052834246</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="15">
         <v>2265.3423840846563</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="A10" s="15">
         <f ca="1">'50% compaign_overview'!G10</f>
         <v>2113.9548000000004</v>
       </c>
-      <c r="D10">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
         <v>1997.6077977179223</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="15">
         <v>2625.7351217642777</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11">
+      <c r="A11" s="15">
         <f ca="1">'50% compaign_overview'!G11</f>
         <v>2415.2619999999997</v>
       </c>
-      <c r="D11">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15">
         <v>2292.6843652179755</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="15">
         <v>2997.2582025528036</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="A12" s="15">
         <f ca="1">'50% compaign_overview'!G12</f>
         <v>2713.8082000000004</v>
       </c>
-      <c r="D12">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15">
         <v>2583.0404141437321</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="15">
         <v>3372.1812553317882</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13">
+      <c r="A13" s="15">
         <f ca="1">'50% compaign_overview'!G13</f>
         <v>3002.2689999999998</v>
       </c>
-      <c r="D13">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15">
         <v>2879.5223033764678</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="15">
         <v>3738.7525159904135</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="A14" s="15">
         <f ca="1">'50% compaign_overview'!G14</f>
         <v>3294.6436000000003</v>
       </c>
-      <c r="D14">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15">
         <v>3162.1970239508382</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="15">
         <v>4102.7998798681656</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15">
+      <c r="A15" s="15">
         <f ca="1">'50% compaign_overview'!G15</f>
         <v>3573.2359999999999</v>
       </c>
-      <c r="D15">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15">
         <v>3430.0269827602838</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="15">
         <v>4456.7885311498003</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16">
+      <c r="A16" s="15">
         <f ca="1">'50% compaign_overview'!G16</f>
         <v>3869.5522000000005</v>
       </c>
-      <c r="D16">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
         <v>3716.2486290872016</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="15">
         <v>4822.4987979346824</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2133,36 +2166,36 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" cm="1">
@@ -15618,36 +15651,36 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" cm="1">
@@ -29081,402 +29114,402 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485ECA16-A4F9-49DB-9E31-0245844E82A5}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_1'!B18:B227)"),0)</f>
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_2'!B18:B227)"),0)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_3'!B18:B227)"),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_4'!B18:B227)"),0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('50_5'!B18:B227)"),0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="13">
-        <f ca="1">AVERAGE(A3:E3)</f>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G16" ca="1" si="0">AVERAGE(A3:E3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.164)</f>
         <v>274.16399999999999</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.9389)</f>
         <v>341.93889999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),308.9241)</f>
         <v>308.92410000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.1773)</f>
         <v>373.1773</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.3646)</f>
         <v>321.3646</v>
       </c>
-      <c r="G4" s="13">
-        <f ca="1">AVERAGE(A4:E4)</f>
+      <c r="G4" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>323.91378000000003</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),505.162)</f>
         <v>505.16199999999998</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0729)</f>
         <v>673.0729</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),592.9403)</f>
         <v>592.94029999999998</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),697.8713)</f>
         <v>697.87130000000002</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.5613)</f>
         <v>609.56129999999996</v>
       </c>
-      <c r="G5" s="13">
-        <f ca="1">AVERAGE(A5:E5)</f>
+      <c r="G5" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>615.72155999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),767.7499)</f>
         <v>767.74990000000003</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),947.375)</f>
         <v>947.375</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),891.5325)</f>
         <v>891.53250000000003</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),954.6152)</f>
         <v>954.61519999999996</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),939.1269)</f>
         <v>939.12689999999998</v>
       </c>
-      <c r="G6" s="13">
-        <f ca="1">AVERAGE(A6:E6)</f>
+      <c r="G6" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>900.07990000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1033.241)</f>
         <v>1033.241</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1281.33)</f>
         <v>1281.33</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1181.209)</f>
         <v>1181.2090000000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1313.951)</f>
         <v>1313.951</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1222.889)</f>
         <v>1222.8889999999999</v>
       </c>
-      <c r="G7" s="13">
-        <f ca="1">AVERAGE(A7:E7)</f>
+      <c r="G7" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>1206.5239999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1274.022)</f>
         <v>1274.0219999999999</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1596.304)</f>
         <v>1596.3040000000001</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1491.184)</f>
         <v>1491.184</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1631.933)</f>
         <v>1631.933</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1548.501)</f>
         <v>1548.501</v>
       </c>
-      <c r="G8" s="13">
-        <f ca="1">AVERAGE(A8:E8)</f>
+      <c r="G8" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>1508.3888000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1555.995)</f>
         <v>1555.9949999999999</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1916.839)</f>
         <v>1916.8389999999999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1756.699)</f>
         <v>1756.6990000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.885)</f>
         <v>2025.885</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1834.488)</f>
         <v>1834.4880000000001</v>
       </c>
-      <c r="G9" s="13">
-        <f ca="1">AVERAGE(A9:E9)</f>
+      <c r="G9" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>1817.9811999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1795.269)</f>
         <v>1795.269</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2205.767)</f>
         <v>2205.7669999999998</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2072.984)</f>
         <v>2072.9839999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2333.415)</f>
         <v>2333.415</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2162.339)</f>
         <v>2162.3389999999999</v>
       </c>
-      <c r="G10" s="13">
-        <f ca="1">AVERAGE(A10:E10)</f>
+      <c r="G10" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>2113.9548000000004</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2041.8)</f>
         <v>2041.8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2479.801)</f>
         <v>2479.8009999999999</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2425.643)</f>
         <v>2425.643</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2676.279)</f>
         <v>2676.279</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2452.787)</f>
         <v>2452.7869999999998</v>
       </c>
-      <c r="G11" s="13">
-        <f ca="1">AVERAGE(A11:E11)</f>
+      <c r="G11" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>2415.2619999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2307.458)</f>
         <v>2307.4580000000001</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2791.474)</f>
         <v>2791.4740000000002</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2720.433)</f>
         <v>2720.433</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2995.29)</f>
         <v>2995.29</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2754.386)</f>
         <v>2754.386</v>
       </c>
-      <c r="G12" s="13">
-        <f ca="1">AVERAGE(A12:E12)</f>
+      <c r="G12" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>2713.8082000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2545.226)</f>
         <v>2545.2260000000001</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3065.673)</f>
         <v>3065.6729999999998</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3023.57)</f>
         <v>3023.57</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3331.802)</f>
         <v>3331.8020000000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3045.074)</f>
         <v>3045.0740000000001</v>
       </c>
-      <c r="G13" s="13">
-        <f ca="1">AVERAGE(A13:E13)</f>
+      <c r="G13" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>3002.2689999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2813.757)</f>
         <v>2813.7570000000001</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3396.157)</f>
         <v>3396.1570000000002</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3278.844)</f>
         <v>3278.8440000000001</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3637.055)</f>
         <v>3637.0549999999998</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3347.405)</f>
         <v>3347.4050000000002</v>
       </c>
-      <c r="G14" s="13">
-        <f ca="1">AVERAGE(A14:E14)</f>
+      <c r="G14" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>3294.6436000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3065.845)</f>
         <v>3065.8449999999998</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3655.226)</f>
         <v>3655.2260000000001</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3558.464)</f>
         <v>3558.4639999999999</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3962.654)</f>
         <v>3962.654</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="4">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3623.991)</f>
         <v>3623.991</v>
       </c>
-      <c r="G15" s="13">
-        <f ca="1">AVERAGE(A15:E15)</f>
+      <c r="G15" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>3573.2359999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3331.893)</f>
         <v>3331.893</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3962.403)</f>
         <v>3962.4029999999998</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3850.724)</f>
         <v>3850.7240000000002</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4304.363)</f>
         <v>4304.3630000000003</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3898.378)</f>
         <v>3898.3780000000002</v>
       </c>
-      <c r="G16" s="14">
-        <f ca="1">AVERAGE(A16:E16)</f>
+      <c r="G16" s="10">
+        <f t="shared" ca="1" si="0"/>
         <v>3869.5522000000005</v>
       </c>
     </row>
